--- a/ru_data_from_en.xlsx
+++ b/ru_data_from_en.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkapelusnikov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkapelusnikov/Documents/GitHub/TranslatedReadMe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBA95FC-635A-224D-8CAE-A55BE6227743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89C4D11-72A5-0C4F-A2B3-C9082DFEA520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,898 +27,898 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
-    <t>Предложение</t>
-  </si>
-  <si>
-    <t> Рейтинг</t>
-  </si>
-  <si>
-    <t> Это правило ценообразования связывает надбавку цены над себестоимостью продукции (P – MC) с ценовой эластичностью спроса.</t>
-  </si>
-  <si>
-    <t> Перекрестная ценовая эластичность предложения отражает реакцию предложения одного товара на изменение цены другого товара.</t>
-  </si>
-  <si>
-    <t> Дополняющими в производстве являются товары, которые производятся вместе в фиксированном соотношении.</t>
-  </si>
-  <si>
-    <t> Если потолок цены установлен на уровне P', то равновесное количество находится при минимуме количества спроса и количества предложения, как в уравнении 2.1.</t>
-  </si>
-  <si>
-    <t> Большая часть цитрусовых в США выращивается во Флориде и Калифорнии.</t>
-  </si>
-  <si>
-    <t> Извлечение: процесс вызова или реактивации воспоминаний, которые были сохранены.</t>
-  </si>
-  <si>
-    <t> Эриксон выделил восемь стадий, каждая из которых представляет собой конфликт или задачу развития.</t>
-  </si>
-  <si>
-    <t> Я думаю, что популярность «Движения Розовой Ленты» достигается благодаря специфическому маркетингу, основанному на том факте, что мы как культура одержимы женскими телами.</t>
+    <t>Это правило ценообразования связывает надбавку цены над себестоимостью продукции (P – MC) с ценовой эластичностью спроса.</t>
+  </si>
+  <si>
+    <t>Перекрестная ценовая эластичность предложения отражает реакцию предложения одного товара на изменение цены другого товара.</t>
+  </si>
+  <si>
+    <t>Дополняющими в производстве являются товары, которые производятся вместе в фиксированном соотношении.</t>
+  </si>
+  <si>
+    <t>Если потолок цены установлен на уровне P', то равновесное количество находится при минимуме количества спроса и количества предложения, как в уравнении 2.1.</t>
+  </si>
+  <si>
+    <t>Большая часть цитрусовых в США выращивается во Флориде и Калифорнии.</t>
+  </si>
+  <si>
+    <t>Извлечение: процесс вызова или реактивации воспоминаний, которые были сохранены.</t>
+  </si>
+  <si>
+    <t>Эриксон выделил восемь стадий, каждая из которых представляет собой конфликт или задачу развития.</t>
+  </si>
+  <si>
+    <t>Я думаю, что популярность «Движения Розовой Ленты» достигается благодаря специфическому маркетингу, основанному на том факте, что мы как культура одержимы женскими телами.</t>
   </si>
   <si>
     <t>Эти впечатляющие результаты демонстрируют силу изменения позиционирования, если с ним правильно обращаться.</t>
   </si>
   <si>
-    <t> Дискреционный доход: Дискреционный доход представляет собой сумму денег, которую мы оставили для инвестирования, сбережений или расходов после уплаты подоходного налога и предметов первой необходимости.</t>
-  </si>
-  <si>
-    <t> В правой части показан результат после того, как злоумышленник записал шелл-код в буфер и посредством переполнения также перезаписал поле return_address в стеке, так что оно теперь указывает на шелл-код.</t>
-  </si>
-  <si>
-    <t> Часто квант представляет собой количество байтов, по крайней мере такое же, как сетевой MTU; в этом случае каждой подочереди будет разрешено отправлять хотя бы один пакет в каждом раунде.</t>
-  </si>
-  <si>
-    <t> Затем он разрешает отправку с этой скоростью; то есть TFRC основан на скорости, а не на окне.</t>
-  </si>
-  <si>
-    <t> Нисходящий трафик помечается (на CMTS или даже выше в сети), если уровень использования нисходящего потока пользователем высок; восходящий трафик отмечается при подключении пользователя к сети, если загрузка восходящего потока высока</t>
+    <t>Дискреционный доход: Дискреционный доход представляет собой сумму денег, которую мы оставили для инвестирования, сбережений или расходов после уплаты подоходного налога и предметов первой необходимости.</t>
+  </si>
+  <si>
+    <t>В правой части показан результат после того, как злоумышленник записал шелл-код в буфер и посредством переполнения также перезаписал поле return_address в стеке, так что оно теперь указывает на шелл-код.</t>
+  </si>
+  <si>
+    <t>Часто квант представляет собой количество байтов, по крайней мере такое же, как сетевой MTU; в этом случае каждой подочереди будет разрешено отправлять хотя бы один пакет в каждом раунде.</t>
+  </si>
+  <si>
+    <t>Затем он разрешает отправку с этой скоростью; то есть TFRC основан на скорости, а не на окне.</t>
+  </si>
+  <si>
+    <t>Нисходящий трафик помечается (на CMTS или даже выше в сети), если уровень использования нисходящего потока пользователем высок; восходящий трафик отмечается при подключении пользователя к сети, если загрузка восходящего потока высока</t>
   </si>
   <si>
     <t>Существует два конкретных протокола состояния канала: протокол IETF Open Shortest Path First (OSPF, RFC 2328) и протокол OSI от промежуточных систем к промежуточным системам (IS-IS, неофициально документированный в RFC 1142).</t>
   </si>
   <si>
-    <t> Юридическая психология - это исследовательская область, в которой работают исследователи из нескольких различных областей психологии (хотя типичными являются социальные психологи).</t>
-  </si>
-  <si>
-    <t> Консультирование Психологическое консультирование — это специальность психологии, которая облегчает личное и межличностное функционирование на протяжении всей жизни, уделяя особое внимание эмоциональным, социальным, профессиональным, образовательным, связанным со здоровьем, развитию и организационным проблемам.</t>
-  </si>
-  <si>
-    <t> Они являются основной тканью и элементом нервной системы.</t>
-  </si>
-  <si>
-    <t> Когнитивная наука очень тесно связана с когнитивной психологией, но отличается некоторыми используемыми методами исследования и уделяет немного больше внимания объяснению психических явлений с точки зрения как поведения, так и нейронной обработки.</t>
+    <t>Юридическая психология - это исследовательская область, в которой работают исследователи из нескольких различных областей психологии (хотя типичными являются социальные психологи).</t>
+  </si>
+  <si>
+    <t>Консультирование Психологическое консультирование — это специальность психологии, которая облегчает личное и межличностное функционирование на протяжении всей жизни, уделяя особое внимание эмоциональным, социальным, профессиональным, образовательным, связанным со здоровьем, развитию и организационным проблемам.</t>
+  </si>
+  <si>
+    <t>Они являются основной тканью и элементом нервной системы.</t>
+  </si>
+  <si>
+    <t>Когнитивная наука очень тесно связана с когнитивной психологией, но отличается некоторыми используемыми методами исследования и уделяет немного больше внимания объяснению психических явлений с точки зрения как поведения, так и нейронной обработки.</t>
   </si>
   <si>
     <t>Развитие компьютерных технологий также способствовало распространению метафоры психической функции как обработки информации.</t>
   </si>
   <si>
-    <t> Речевые шары обозначают диалог (или мысль, в случае с мыслительными шарами), хвостами которых указывают на соответствующих говорящих.</t>
-  </si>
-  <si>
-    <t> Фотография предлагала альтернативу рисованию как методу точного изображения визуальных явлений, а традиционной практике рисования уделялось меньше внимания как важному навыку для художников, особенно в западном обществе.</t>
-  </si>
-  <si>
-    <t> С тех пор цветная фотография доминирует в популярной фотографии, хотя черно-белая фотография все еще используется, поскольку ее легче развивать, чем цветную.</t>
-  </si>
-  <si>
-    <t> Среди мусульман считается макрухом (нежеланием) совершать намаз (поклонение) в месте, украшенном фотографиями.</t>
-  </si>
-  <si>
-    <t> Когда нарисованы и фасады, и стороны здания, параллельные линии, образующие сторону, сходятся во второй точке вдоль горизонта (которая может находиться за пределами чертежной бумаги).</t>
-  </si>
-  <si>
-    <t> Техническая география — самая недавно признанная из отраслей.</t>
+    <t>Речевые шары обозначают диалог (или мысль, в случае с мыслительными шарами), хвостами которых указывают на соответствующих говорящих.</t>
+  </si>
+  <si>
+    <t>Фотография предлагала альтернативу рисованию как методу точного изображения визуальных явлений, а традиционной практике рисования уделялось меньше внимания как важному навыку для художников, особенно в западном обществе.</t>
+  </si>
+  <si>
+    <t>С тех пор цветная фотография доминирует в популярной фотографии, хотя черно-белая фотография все еще используется, поскольку ее легче развивать, чем цветную.</t>
+  </si>
+  <si>
+    <t>Среди мусульман считается макрухом (нежеланием) совершать намаз (поклонение) в месте, украшенном фотографиями.</t>
+  </si>
+  <si>
+    <t>Когда нарисованы и фасады, и стороны здания, параллельные линии, образующие сторону, сходятся во второй точке вдоль горизонта (которая может находиться за пределами чертежной бумаги).</t>
+  </si>
+  <si>
+    <t>Техническая география — самая недавно признанная из отраслей.</t>
   </si>
   <si>
     <t>В первые годы нового тысячелетия три ключевых технологических достижения изменили картографию: отказ от выборочной доступности в системе глобального позиционирования (GPS) в мае 2000 года, что повысило точность определения местоположения для GPS-приемников потребительского уровня до нескольких метров; изобретение OpenStreetMap в 2004 году, глобальной цифровой контркарты, которая позволяла любому вносить и использовать новые пространственные данные без сложных лицензионных соглашений; и запуск Google Earth в 2005 году как развитие виртуального глобуса EarthViewer 3D (2004), который произвел революцию в доступе к спутниковым и аэрофотоснимкам.</t>
   </si>
   <si>
-    <t> С появлением Интернета и веб-картографии технологии, позволяющие создавать и распространять карты людьми без надлежащей картографической подготовки, стали легко доступны.</t>
-  </si>
-  <si>
-    <t> Изображение карты должно быть размещено на странице (будь то бумажная, веб-страница или другой носитель) вместе со связанными элементами, такими как заголовок, легенда, дополнительные карты, текст, изображения и т. д.</t>
+    <t>С появлением Интернета и веб-картографии технологии, позволяющие создавать и распространять карты людьми без надлежащей картографической подготовки, стали легко доступны.</t>
+  </si>
+  <si>
+    <t>Изображение карты должно быть размещено на странице (будь то бумажная, веб-страница или другой носитель) вместе со связанными элементами, такими как заголовок, легенда, дополнительные карты, текст, изображения и т. д.</t>
   </si>
   <si>
     <t>В 2008 году для биогеографии был предложен Международный кодекс номенклатуры территорий.</t>
   </si>
   <si>
-    <t> Сообщается, что заядлые курильщики сжигают на 200 калорий в день больше, чем некурящие, придерживающиеся той же диеты.</t>
-  </si>
-  <si>
-    <t> Возрастные ограничения педиатрии во всем мире имеют тенденцию к повышению из года в год.</t>
-  </si>
-  <si>
-    <t> Оно увеличивается в тех случаях, когда у кого-то снижен иммунитет к инфекции.</t>
-  </si>
-  <si>
-    <t> Он будет использовать накопленные запасы энергии до тех пор, пока они не будут исчерпаны, а затем расщепляет массу собственного тела для получения дополнительной энергии.</t>
-  </si>
-  <si>
-    <t> Гигиенические меры включают полоскание маслом и соскабливание языка.</t>
-  </si>
-  <si>
-    <t> Цинь Шихуан, первый император династии Цинь (221–207 до н.э.), во многом был обязан своим успехом в объединении южного Китая военно-морской мощи, хотя официальный военно-морской флот еще не был создан (см. раздел «Средневековая Азия» ниже).</t>
-  </si>
-  <si>
-    <t> В других сценах мужчины носят головные уборы и украшения на коленях, но в остальном сражаются обнаженными.</t>
+    <t>Сообщается, что заядлые курильщики сжигают на 200 калорий в день больше, чем некурящие, придерживающиеся той же диеты.</t>
+  </si>
+  <si>
+    <t>Возрастные ограничения педиатрии во всем мире имеют тенденцию к повышению из года в год.</t>
+  </si>
+  <si>
+    <t>Оно увеличивается в тех случаях, когда у кого-то снижен иммунитет к инфекции.</t>
+  </si>
+  <si>
+    <t>Он будет использовать накопленные запасы энергии до тех пор, пока они не будут исчерпаны, а затем расщепляет массу собственного тела для получения дополнительной энергии.</t>
+  </si>
+  <si>
+    <t>Гигиенические меры включают полоскание маслом и соскабливание языка.</t>
+  </si>
+  <si>
+    <t>Цинь Шихуан, первый император династии Цинь (221–207 до н.э.), во многом был обязан своим успехом в объединении южного Китая военно-морской мощи, хотя официальный военно-морской флот еще не был создан (см. раздел «Средневековая Азия» ниже).</t>
+  </si>
+  <si>
+    <t>В других сценах мужчины носят головные уборы и украшения на коленях, но в остальном сражаются обнаженными.</t>
   </si>
   <si>
     <t>В связи с возросшей потребностью в заготовке и обработке растений значительно большее распространение получили шлифованные каменные и полированные каменные изделия, в том числе инструменты для шлифовки, резки и рубки.</t>
   </si>
   <si>
-    <t> Они захватили Китай, Персию, Туркестан и Россию.</t>
-  </si>
-  <si>
-    <t> К 653 г. до н.э. саитский царь Псамтик I смог вытеснить ассирийцев с помощью греческих наемников, которые были набраны для формирования первого флота Египта.</t>
-  </si>
-  <si>
-    <t> Последовательности, не стремящиеся к бесконечности, называются ограниченными.</t>
-  </si>
-  <si>
-    <t> Равномерный предел имеет «более приятные» свойства, чем поточечный предел.</t>
-  </si>
-  <si>
-    <t> Стохастическое уравнение в частных производных (SPDE) — это уравнение, которое обобщает SDE, включив в него процессы пространственно-временного шума, с приложениями в квантовой теории поля и статистической механике.</t>
-  </si>
-  <si>
-    <t> Можно доказать, что это эквивалентно абсолютной сходимости.</t>
-  </si>
-  <si>
-    <t> Обозначение Big O: используется для описания предельного поведения функции, когда аргумент стремится к определенному значению или бесконечности.</t>
+    <t>Они захватили Китай, Персию, Туркестан и Россию.</t>
+  </si>
+  <si>
+    <t>К 653 г. до н.э. саитский царь Псамтик I смог вытеснить ассирийцев с помощью греческих наемников, которые были набраны для формирования первого флота Египта.</t>
+  </si>
+  <si>
+    <t>Последовательности, не стремящиеся к бесконечности, называются ограниченными.</t>
+  </si>
+  <si>
+    <t>Равномерный предел имеет «более приятные» свойства, чем поточечный предел.</t>
+  </si>
+  <si>
+    <t>Стохастическое уравнение в частных производных (SPDE) — это уравнение, которое обобщает SDE, включив в него процессы пространственно-временного шума, с приложениями в квантовой теории поля и статистической механике.</t>
+  </si>
+  <si>
+    <t>Можно доказать, что это эквивалентно абсолютной сходимости.</t>
+  </si>
+  <si>
+    <t>Обозначение Big O: используется для описания предельного поведения функции, когда аргумент стремится к определенному значению или бесконечности.</t>
   </si>
   <si>
     <t>Использование измерений было разработано для того, чтобы обеспечить возможность записи и сравнения наблюдений, сделанных в разное время и в разных местах разными людьми.</t>
   </si>
   <si>
-    <t> Эукариотические клетки также имеют цитоскелет, состоящий из микротрубочек, промежуточных нитей и микрофиламентов, которые обеспечивают поддержку клетки и участвуют в движении клетки и ее органелл.</t>
-  </si>
-  <si>
-    <t> Таким образом, два человека могут взглянуть на одно и то же событие и прийти к нему с совершенно разным восприятием, расходясь даже в отношении простых фактов.</t>
-  </si>
-  <si>
-    <t> Некоторые животные способны к бесполому размножению, что часто приводит к образованию генетического клона родителя.</t>
-  </si>
-  <si>
-    <t> Однако даже при использовании этих усовершенствованных методов общее количество видов бактерий неизвестно и даже не может быть оценено с какой-либо уверенностью.</t>
-  </si>
-  <si>
-    <t> Хук также сказал, что гуманисты поддерживают ликвидацию голода и улучшение здравоохранения, жилья и образования.</t>
+    <t>Эукариотические клетки также имеют цитоскелет, состоящий из микротрубочек, промежуточных нитей и микрофиламентов, которые обеспечивают поддержку клетки и участвуют в движении клетки и ее органелл.</t>
+  </si>
+  <si>
+    <t>Таким образом, два человека могут взглянуть на одно и то же событие и прийти к нему с совершенно разным восприятием, расходясь даже в отношении простых фактов.</t>
+  </si>
+  <si>
+    <t>Некоторые животные способны к бесполому размножению, что часто приводит к образованию генетического клона родителя.</t>
+  </si>
+  <si>
+    <t>Однако даже при использовании этих усовершенствованных методов общее количество видов бактерий неизвестно и даже не может быть оценено с какой-либо уверенностью.</t>
+  </si>
+  <si>
+    <t>Хук также сказал, что гуманисты поддерживают ликвидацию голода и улучшение здравоохранения, жилья и образования.</t>
   </si>
   <si>
     <t>Эта точка зрения противоречит как реформистской, так и ленинистской коммунистической идеологии, которые соответственно подчеркивают парламентское и институциональное правительство путем применения социальных реформ, с одной стороны, и авангардных партий и демократического централизма с участием, с другой.</t>
   </si>
   <si>
-    <t> Фашизм сознательно и полностью недемократичен и антидемократичен.</t>
-  </si>
-  <si>
-    <t> В египетской, индийской, месопотамской, суданской, реконструированной протоиндоевропейской религиях и других религиях монарх выполнял сакральные функции, непосредственно связанные с жертвоприношением, и иногда отождествлялся с имеющим божественное происхождение, что, возможно, создавало представление о божественном праве королей.</t>
-  </si>
-  <si>
-    <t> Более высокие оценки критикуются за то, что они основаны на скудных и неполных данных, когда существенные ошибки неизбежны, смещены в сторону более высоких возможных значений, а жертвы гражданских войн, Голодомора и других голодоморов, а также событий, связанных с войной, не должны включаться.</t>
+    <t>Фашизм сознательно и полностью недемократичен и антидемократичен.</t>
+  </si>
+  <si>
+    <t>В египетской, индийской, месопотамской, суданской, реконструированной протоиндоевропейской религиях и других религиях монарх выполнял сакральные функции, непосредственно связанные с жертвоприношением, и иногда отождествлялся с имеющим божественное происхождение, что, возможно, создавало представление о божественном праве королей.</t>
+  </si>
+  <si>
+    <t>Более высокие оценки критикуются за то, что они основаны на скудных и неполных данных, когда существенные ошибки неизбежны, смещены в сторону более высоких возможных значений, а жертвы гражданских войн, Голодомора и других голодоморов, а также событий, связанных с войной, не должны включаться.</t>
   </si>
   <si>
     <t>Организация знаний. Применение представлений когнитивной психологии о том, как знания организованы в мозгу, в последние годы было в центре внимания в области образования.</t>
   </si>
   <si>
-    <t> Доступ к семантической памяти варьируется от незначительного до чрезвычайно трудоемкого, в зависимости от ряда переменных, включая, помимо прочего, давность кодирования информации, количество ассоциаций, которые она имеет с другой информацией, частоту доступа и уровни значения (насколько глубоко она был обработан при кодировании).</t>
-  </si>
-  <si>
-    <t> Эта перспектива была имплицитно заложена в первоначальном социологическом позитивизме Конта, но была полностью теоретизирована Дюркгеймом, опять же в отношении наблюдаемых структурных законов.</t>
-  </si>
-  <si>
-    <t> Этот подход в первую очередь связан с Майклом Буравым, который противопоставил его профессиональной социологии, форме академической социологии, которая занимается в первую очередь обращением к другим профессиональным социологам.</t>
+    <t>Доступ к семантической памяти варьируется от незначительного до чрезвычайно трудоемкого, в зависимости от ряда переменных, включая, помимо прочего, давность кодирования информации, количество ассоциаций, которые она имеет с другой информацией, частоту доступа и уровни значения (насколько глубоко она был обработан при кодировании).</t>
+  </si>
+  <si>
+    <t>Эта перспектива была имплицитно заложена в первоначальном социологическом позитивизме Конта, но была полностью теоретизирована Дюркгеймом, опять же в отношении наблюдаемых структурных законов.</t>
+  </si>
+  <si>
+    <t>Этот подход в первую очередь связан с Майклом Буравым, который противопоставил его профессиональной социологии, форме академической социологии, которая занимается в первую очередь обращением к другим профессиональным социологам.</t>
   </si>
   <si>
     <t>Социология коммуникаций и информационных технологий включает «социальные аспекты вычислений, Интернета, новых медиа, компьютерных сетей и других коммуникационных и информационных технологий».</t>
   </si>
   <si>
-    <t> Доступ к элементам осуществляется с использованием целочисленного индекса, чтобы указать, какой элемент требуется.</t>
-  </si>
-  <si>
-    <t> Это облегчает рефакторинг кода, например, позволяя автору класса изменить способ представления объектов этого класса своих данных внутри, не меняя никакого внешнего кода (при условии, что вызовы «публичных» методов работают таким же образом).</t>
-  </si>
-  <si>
-    <t> Отключения электроэнергии происходят в случае полного прекращения подачи электроэнергии.</t>
-  </si>
-  <si>
-    <t> Система производила на приемном конце мощность до 1 кВт.</t>
-  </si>
-  <si>
-    <t> В Великобритании затраты на передачу составляют около 0,2 цента за кВтч по сравнению с внутренней ценой около 10 центов за кВтч. Исследования показывают, что уровень капитальных затрат на рынке оборудования передачи и распределения электроэнергии составит 128,9 миллиардов долларов в 2011 году.</t>
+    <t>Доступ к элементам осуществляется с использованием целочисленного индекса, чтобы указать, какой элемент требуется.</t>
+  </si>
+  <si>
+    <t>Это облегчает рефакторинг кода, например, позволяя автору класса изменить способ представления объектов этого класса своих данных внутри, не меняя никакого внешнего кода (при условии, что вызовы «публичных» методов работают таким же образом).</t>
+  </si>
+  <si>
+    <t>Отключения электроэнергии происходят в случае полного прекращения подачи электроэнергии.</t>
+  </si>
+  <si>
+    <t>Система производила на приемном конце мощность до 1 кВт.</t>
+  </si>
+  <si>
+    <t>В Великобритании затраты на передачу составляют около 0,2 цента за кВтч по сравнению с внутренней ценой около 10 центов за кВтч. Исследования показывают, что уровень капитальных затрат на рынке оборудования передачи и распределения электроэнергии составит 128,9 миллиардов долларов в 2011 году.</t>
   </si>
   <si>
     <t>Ты губишь все свои шансы, - грустно сказал друг, - и лицо, которое ты видишь, не стоит жертв.</t>
   </si>
   <si>
-    <t> Его совету снова прислушались, когда нужно было определиться с планом обучения молодого принца Уэльского.</t>
-  </si>
-  <si>
-    <t> Принцесса Виктория Мария Луиза была младшей дочерью герцога Саксен-Кобургского и вдовой принца Карла Лейнингенского, который после своей смерти оставил ее регентом своего княжества.</t>
-  </si>
-  <si>
-    <t> Лишь немногие правители в истории, если таковые вообще существовали, были столь безупречны, как ее, а ее домашняя жизнь была идеальной в своей гармонии и преданности членов ее семьи друг другу.</t>
+    <t>Его совету снова прислушались, когда нужно было определиться с планом обучения молодого принца Уэльского.</t>
+  </si>
+  <si>
+    <t>Принцесса Виктория Мария Луиза была младшей дочерью герцога Саксен-Кобургского и вдовой принца Карла Лейнингенского, который после своей смерти оставил ее регентом своего княжества.</t>
+  </si>
+  <si>
+    <t>Лишь немногие правители в истории, если таковые вообще существовали, были столь безупречны, как ее, а ее домашняя жизнь была идеальной в своей гармонии и преданности членов ее семьи друг другу.</t>
   </si>
   <si>
     <t>Золотой свет на воде, жемчужно-серый и тонированный мрамор, веселые паруса галер, кружившие над лагунами, словно нарисованные бабочки, широкая полоса воды, заканчивающаяся таинственностью далекого горизонта, - все это запало в их сердца. и неудивительно, что они стремились писать цвет превыше всего и, наконец, достигли совершенства, которому не могла сравниться ни одна другая школа художников.</t>
   </si>
   <si>
-    <t> Я немного облетал все части света; и это правда, что география мне очень пригодилась.</t>
-  </si>
-  <si>
-    <t> Шестая планета была в десять раз больше предыдущей.</t>
-  </si>
-  <si>
-    <t> И я выбросил объяснение вместе с этим.</t>
-  </si>
-  <si>
-    <t> Когда кто-то хочет пошутить, он иногда несколько отклоняется от истины.</t>
-  </si>
-  <si>
-    <t> Этот астероид только один раз видели в телескоп.</t>
+    <t>Я немного облетал все части света; и это правда, что география мне очень пригодилась.</t>
+  </si>
+  <si>
+    <t>Шестая планета была в десять раз больше предыдущей.</t>
+  </si>
+  <si>
+    <t>И я выбросил объяснение вместе с этим.</t>
+  </si>
+  <si>
+    <t>Когда кто-то хочет пошутить, он иногда несколько отклоняется от истины.</t>
+  </si>
+  <si>
+    <t>Этот астероид только один раз видели в телескоп.</t>
   </si>
   <si>
     <t>Вопрос должен быть рассмотрен на основании внешних и внутренних доказательств; язык и физический тип нашей расы дают определенные данные для его применения, а другие данные предоставляют наша литература, гений и духовное творчество в целом.</t>
   </si>
   <si>
-    <t> А Церера, гений ковчега, конечно же, находится в Керидвен, «британской Церере, аркитской богине, которая посвящает нас в глубочайшие тайны аркитских суеверий».</t>
-  </si>
-  <si>
-    <t> Кроме того, насколько нам известно о кельтском гении, г-н Норрис привез нам из Корнуолла, г-н де ла Вильмарк из Бретани, вклады, действительно незначительные по количеству, если сравнивать их с массой сохранившихся ирландских материалов. но далеко не незначительное значение.</t>
-  </si>
-  <si>
-    <t> «Тогда нашел церковь, — сказал святой, — которая не будет слишком близко к нам» (то есть к его собственной церкви в Арме) «для знакомства и не слишком далеко от нас для общения».</t>
+    <t>А Церера, гений ковчега, конечно же, находится в Керидвен, «британской Церере, аркитской богине, которая посвящает нас в глубочайшие тайны аркитских суеверий».</t>
+  </si>
+  <si>
+    <t>Кроме того, насколько нам известно о кельтском гении, г-н Норрис привез нам из Корнуолла, г-н де ла Вильмарк из Бретани, вклады, действительно незначительные по количеству, если сравнивать их с массой сохранившихся ирландских материалов. но далеко не незначительное значение.</t>
+  </si>
+  <si>
+    <t>«Тогда нашел церковь, — сказал святой, — которая не будет слишком близко к нам» (то есть к его собственной церкви в Арме) «для знакомства и не слишком далеко от нас для общения».</t>
   </si>
   <si>
     <t>И Передур встал и сравнил черноту ворона, белизну снега и красноту крови с волосами женщины, которую он любил больше всего, которые были чернее ворона, и с ее кожей, которая была белее снега, и обе ее щеки, которые были краснее, чем казалась кровь на снегу».</t>
   </si>
   <si>
-    <t> Эти два года возвышаются, как две горы, на полпути между предшествующими и последующими годами.</t>
-  </si>
-  <si>
-    <t> Ни один из этих молодых людей не произнес слова: Император.</t>
-  </si>
-  <si>
-    <t> — Это очень удачно, — сказал старик укоризненным тоном.</t>
-  </si>
-  <si>
-    <t> В сущности, заметим, во всем этом не было ничего несерьезного.</t>
-  </si>
-  <si>
-    <t> Тигель, в который судьба бросает человека, когда бы ей ни пожелал негодяй или полубог.</t>
-  </si>
-  <si>
-    <t> ПОЖАЛУЙСТА, НЕ рекомендуйте мне «Код да Винчи», потому что вы считаете его блестящим.</t>
-  </si>
-  <si>
-    <t> Очень рекомендую этот сериал!</t>
-  </si>
-  <si>
-    <t> Персонажи неприятны, а история очень медленная… и ничто не заставляет меня продолжать читать.</t>
+    <t>Эти два года возвышаются, как две горы, на полпути между предшествующими и последующими годами.</t>
+  </si>
+  <si>
+    <t>Ни один из этих молодых людей не произнес слова: Император.</t>
+  </si>
+  <si>
+    <t>— Это очень удачно, — сказал старик укоризненным тоном.</t>
+  </si>
+  <si>
+    <t>В сущности, заметим, во всем этом не было ничего несерьезного.</t>
+  </si>
+  <si>
+    <t>Тигель, в который судьба бросает человека, когда бы ей ни пожелал негодяй или полубог.</t>
+  </si>
+  <si>
+    <t>ПОЖАЛУЙСТА, НЕ рекомендуйте мне «Код да Винчи», потому что вы считаете его блестящим.</t>
+  </si>
+  <si>
+    <t>Очень рекомендую этот сериал!</t>
+  </si>
+  <si>
+    <t>Персонажи неприятны, а история очень медленная… и ничто не заставляет меня продолжать читать.</t>
   </si>
   <si>
     <t>На ужине тем вечером в доме Экройда в Фернли-Парке среди его гостей - его невестка миссис Сесил Экройд и ее дочь Флора, охотник на крупную дичь майор Блант, личный секретарь Экройда Джеффри Рэймонд и доктор Джеймс Шеппард, которого Экройд пригласил ранее. тот день.</t>
   </si>
   <si>
-    <t> Мы видим, как те, кто сопротивляется оккупации, расходятся во мнениях друг с другом о том, как сопротивляться.</t>
-  </si>
-  <si>
-    <t> В итоге они заблокировали наш счет на случай непредвиденных расходов и всю стоимость проживания, хотя номер уже был оплачен.</t>
-  </si>
-  <si>
-    <t> Ели во многих ресторанах и наслаждались разнообразием кухни.</t>
-  </si>
-  <si>
-    <t> Действительно потрясающий персонал.</t>
-  </si>
-  <si>
-    <t> Очень дружелюбные сотрудники во время завтрака. Очень близко к межштатной автомагистрали, всего в нескольких милях от стадиона KC Royals.</t>
-  </si>
-  <si>
-    <t> Это превзошло все наши ожидания в отношении обслуживания, стоимости и местоположения.</t>
-  </si>
-  <si>
-    <t> Оригинальный сценарий точно раскрывает ситуацию и персонажей, используя флэшбеки и великолепные реплики.</t>
+    <t>Мы видим, как те, кто сопротивляется оккупации, расходятся во мнениях друг с другом о том, как сопротивляться.</t>
+  </si>
+  <si>
+    <t>В итоге они заблокировали наш счет на случай непредвиденных расходов и всю стоимость проживания, хотя номер уже был оплачен.</t>
+  </si>
+  <si>
+    <t>Ели во многих ресторанах и наслаждались разнообразием кухни.</t>
+  </si>
+  <si>
+    <t>Действительно потрясающий персонал.</t>
+  </si>
+  <si>
+    <t>Очень дружелюбные сотрудники во время завтрака. Очень близко к межштатной автомагистрали, всего в нескольких милях от стадиона KC Royals.</t>
+  </si>
+  <si>
+    <t>Это превзошло все наши ожидания в отношении обслуживания, стоимости и местоположения.</t>
+  </si>
+  <si>
+    <t>Оригинальный сценарий точно раскрывает ситуацию и персонажей, используя флэшбеки и великолепные реплики.</t>
   </si>
   <si>
     <t>А затем на всякий случай затягивает еще немного. У него также нет никакой реальной причины, чтобы действие происходило в 1984 году, кроме названия и «Добро пожаловать в дом наслаждений» Фрэнки едет в Голливуд, который используется в одной сцене.</t>
   </si>
   <si>
-    <t> Однако здесь, в «Рождественской истории», это не только лучшее, что я видел в постановке Кларка, но я думаю, что это и его лучший фильм. Я люблю рождественские фильмы, и хотя «Рождественская история» не является моим абсолютным фаворитом, я думаю, что он полностью заслуживает его титул вневременного рождественского сокровища.</t>
-  </si>
-  <si>
-    <t> Эта часть все еще работает.</t>
-  </si>
-  <si>
-    <t> Ему присвоен рейтинг «PG-13» за действие и насилие, продолжительность — 2 часа 31 минута.</t>
-  </si>
-  <si>
-    <t> Легко заряжается, остается в ушах и имеет отличное качество звука.</t>
-  </si>
-  <si>
-    <t> Просто совсем не долговечный.</t>
-  </si>
-  <si>
-    <t> Дефектный диск, остановился за 5-10 минут до конца фильма.</t>
-  </si>
-  <si>
-    <t> Это не работает и очень плохо пахнет</t>
-  </si>
-  <si>
-    <t> В салате было столько соуса, сколько нужно, чтобы не перегрузить гребешок, который был прекрасно приготовлен.</t>
+    <t>Однако здесь, в «Рождественской истории», это не только лучшее, что я видел в постановке Кларка, но я думаю, что это и его лучший фильм. Я люблю рождественские фильмы, и хотя «Рождественская история» не является моим абсолютным фаворитом, я думаю, что он полностью заслуживает его титул вневременного рождественского сокровища.</t>
+  </si>
+  <si>
+    <t>Эта часть все еще работает.</t>
+  </si>
+  <si>
+    <t>Ему присвоен рейтинг «PG-13» за действие и насилие, продолжительность — 2 часа 31 минута.</t>
+  </si>
+  <si>
+    <t>Легко заряжается, остается в ушах и имеет отличное качество звука.</t>
+  </si>
+  <si>
+    <t>Просто совсем не долговечный.</t>
+  </si>
+  <si>
+    <t>Дефектный диск, остановился за 5-10 минут до конца фильма.</t>
+  </si>
+  <si>
+    <t>Это не работает и очень плохо пахнет</t>
+  </si>
+  <si>
+    <t>В салате было столько соуса, сколько нужно, чтобы не перегрузить гребешок, который был прекрасно приготовлен.</t>
   </si>
   <si>
     <t>Еда была едва теплой, поэтому, должно быть, она стояла и ждала, пока сервер принесет ее нам.</t>
   </si>
   <si>
-    <t> Это похоже на по-настоящему сексуальную вечеринку у тебя во рту, где ты возмутительно флиртуешь с самым горячим человеком на вечеринке.</t>
-  </si>
-  <si>
-    <t> Это произошло из-за того, что подтверждение заняло 20 минут, затем еще 35 минут, чтобы получить еду.</t>
-  </si>
-  <si>
-    <t> К этому моменту мы с друзьями уже поняли, что это место — шутка, и были не против сделать его публично и громко известным.</t>
-  </si>
-  <si>
-    <t> Points = bbox2points(rectangle) преобразует входной прямоугольник, заданный как [ширина xy, высота] в список из четырех угловых точек [xy].</t>
-  </si>
-  <si>
-    <t> y = logspace(a,b) генерирует вектор-строку y из 50 логарифмически расположенных точек между декадами 10^a и 10^b.</t>
-  </si>
-  <si>
-    <t> Размер строки должен быть таким же, как размер столбца.</t>
-  </si>
-  <si>
-    <t> Если вы установите цветовую карту для фигуры, то оси и диаграммы на рисунке будут использовать одну и ту же цветовую карту.</t>
+    <t>Это похоже на по-настоящему сексуальную вечеринку у тебя во рту, где ты возмутительно флиртуешь с самым горячим человеком на вечеринке.</t>
+  </si>
+  <si>
+    <t>Это произошло из-за того, что подтверждение заняло 20 минут, затем еще 35 минут, чтобы получить еду.</t>
+  </si>
+  <si>
+    <t>К этому моменту мы с друзьями уже поняли, что это место — шутка, и были не против сделать его публично и громко известным.</t>
+  </si>
+  <si>
+    <t>Points = bbox2points(rectangle) преобразует входной прямоугольник, заданный как [ширина xy, высота] в список из четырех угловых точек [xy].</t>
+  </si>
+  <si>
+    <t>y = logspace(a,b) генерирует вектор-строку y из 50 логарифмически расположенных точек между декадами 10^a и 10^b.</t>
+  </si>
+  <si>
+    <t>Размер строки должен быть таким же, как размер столбца.</t>
+  </si>
+  <si>
+    <t>Если вы установите цветовую карту для фигуры, то оси и диаграммы на рисунке будут использовать одну и ту же цветовую карту.</t>
   </si>
   <si>
     <t>Для большинства форматов файлов изображений imread использует 8 или меньше бит на цветовую плоскость для хранения пикселей изображения.</t>
   </si>
   <si>
-    <t> Чтобы сделать чтение, разбейте яйцо над стаканом воды.</t>
-  </si>
-  <si>
-    <t> Сядьте удобно и сосредоточьтесь на своем намерении избавиться от негативной энергии.</t>
-  </si>
-  <si>
-    <t> Сделайте 12 повторений в каждом подходе.</t>
-  </si>
-  <si>
-    <t> Наклоните лезвие под углом 45 градусов к стеблю и воткните его в тыкву.</t>
-  </si>
-  <si>
-    <t> Это часто называют отжиманием щуки.</t>
-  </si>
-  <si>
-    <t> Подавайте горячим.</t>
-  </si>
-  <si>
-    <t> Постоянно помешивайте, пока смесь не загустеет, около 5 минут.</t>
-  </si>
-  <si>
-    <t> Накройте смесь крышкой и продолжайте готовить еще 10 минут, периодически помешивая.</t>
-  </si>
-  <si>
-    <t> Застелите квадратную форму размером 9 дюймов или 13х9 дюймов фольгой так, чтобы фольга заходила по бокам формы; масляная фольга.</t>
-  </si>
-  <si>
-    <t> Поставьте несмазанную маслом сковороду на умеренно сильный огонь и проверьте температуру ее поверхности, подержав над ней руку.</t>
-  </si>
-  <si>
-    <t> Вы можете настраивать подключения к различным типам сетей и точек доступа Wi-Fi, управлять сохраненными сетями и искать сетевые адреса вашего устройства.</t>
+    <t>Чтобы сделать чтение, разбейте яйцо над стаканом воды.</t>
+  </si>
+  <si>
+    <t>Сядьте удобно и сосредоточьтесь на своем намерении избавиться от негативной энергии.</t>
+  </si>
+  <si>
+    <t>Сделайте 12 повторений в каждом подходе.</t>
+  </si>
+  <si>
+    <t>Наклоните лезвие под углом 45 градусов к стеблю и воткните его в тыкву.</t>
+  </si>
+  <si>
+    <t>Это часто называют отжиманием щуки.</t>
+  </si>
+  <si>
+    <t>Подавайте горячим.</t>
+  </si>
+  <si>
+    <t>Постоянно помешивайте, пока смесь не загустеет, около 5 минут.</t>
+  </si>
+  <si>
+    <t>Накройте смесь крышкой и продолжайте готовить еще 10 минут, периодически помешивая.</t>
+  </si>
+  <si>
+    <t>Застелите квадратную форму размером 9 дюймов или 13х9 дюймов фольгой так, чтобы фольга заходила по бокам формы; масляная фольга.</t>
+  </si>
+  <si>
+    <t>Поставьте несмазанную маслом сковороду на умеренно сильный огонь и проверьте температуру ее поверхности, подержав над ней руку.</t>
+  </si>
+  <si>
+    <t>Вы можете настраивать подключения к различным типам сетей и точек доступа Wi-Fi, управлять сохраненными сетями и искать сетевые адреса вашего устройства.</t>
   </si>
   <si>
     <t>Устройство, на которое вы осуществляете передачу, должно поддерживать NFC и должно находиться в пределах четырех сантиметров от вашего устройства.</t>
   </si>
   <si>
-    <t> Просматривайте файлы, хранящиеся на вашем устройстве, включая изображения, видео, музыку и аудиоклипы, и управляйте ими.</t>
-  </si>
-  <si>
-    <t> Android Auto выводит самые полезные приложения на экран вашего устройства или на дисплей совместимого автомобиля в формате, который позволяет вам сосредоточиться на вождении.</t>
-  </si>
-  <si>
-    <t> Настройки родительского контроля должны быть включены, чтобы гарантировать, что дети не будут иметь доступа к услугам или контенту, не одобренному родителем.</t>
-  </si>
-  <si>
-    <t> Члены сообщества должны использовать сеансы Zoom/посещать, находясь в месте, где они могут сконцентрироваться и не подвергать опасности себя или других.</t>
-  </si>
-  <si>
-    <t> Если вы считаете, что этот документ нуждается в изменении формулировки, свяжитесь с любым организатором Fatima Fellowship через Slack или по адресу электронной почты, указанному на веб-сайте программы.</t>
+    <t>Просматривайте файлы, хранящиеся на вашем устройстве, включая изображения, видео, музыку и аудиоклипы, и управляйте ими.</t>
+  </si>
+  <si>
+    <t>Android Auto выводит самые полезные приложения на экран вашего устройства или на дисплей совместимого автомобиля в формате, который позволяет вам сосредоточиться на вождении.</t>
+  </si>
+  <si>
+    <t>Настройки родительского контроля должны быть включены, чтобы гарантировать, что дети не будут иметь доступа к услугам или контенту, не одобренному родителем.</t>
+  </si>
+  <si>
+    <t>Члены сообщества должны использовать сеансы Zoom/посещать, находясь в месте, где они могут сконцентрироваться и не подвергать опасности себя или других.</t>
+  </si>
+  <si>
+    <t>Если вы считаете, что этот документ нуждается в изменении формулировки, свяжитесь с любым организатором Fatima Fellowship через Slack или по адресу электронной почты, указанному на веб-сайте программы.</t>
   </si>
   <si>
     <t>Создание формы записи для сообщения о нарушении кодекса поведения разрешено исключительно для упомянутой цели и только в том случае, если она передана организатору, назначенному Fatima Fellowship для борьбы с такими нарушениями.</t>
   </si>
   <si>
-    <t> Мы признаем, что наша работа как исследователей часто зависит от вклада других.</t>
-  </si>
-  <si>
-    <t> Участие в Fatima Fellowship в качестве организатора, наставника или научного сотрудника не представляет собой какое-либо агентство, партнерство или совместное предприятие между вами и Fatima Fellowship и/или любым другим членом сообщества или их исходным учреждением.</t>
-  </si>
-  <si>
-    <t> Если для обеспечения соблюдения условий настоящего договора необходим судебный иск, выигравшая сторона имеет право на разумные гонорары адвокатов в дополнение к любым другим средствам правовой защиты, на которые эта сторона может иметь законное право.</t>
-  </si>
-  <si>
-    <t> В таком случае любая непогашенная сумма немедленно станет причитающейся к выплате Подрядчику.</t>
+    <t>Мы признаем, что наша работа как исследователей часто зависит от вклада других.</t>
+  </si>
+  <si>
+    <t>Участие в Fatima Fellowship в качестве организатора, наставника или научного сотрудника не представляет собой какое-либо агентство, партнерство или совместное предприятие между вами и Fatima Fellowship и/или любым другим членом сообщества или их исходным учреждением.</t>
+  </si>
+  <si>
+    <t>Если для обеспечения соблюдения условий настоящего договора необходим судебный иск, выигравшая сторона имеет право на разумные гонорары адвокатов в дополнение к любым другим средствам правовой защиты, на которые эта сторона может иметь законное право.</t>
+  </si>
+  <si>
+    <t>В таком случае любая непогашенная сумма немедленно станет причитающейся к выплате Подрядчику.</t>
   </si>
   <si>
     <t>Любая из сторон может освободиться от любых дальнейших обязательств по исполнению в случае катастрофического происшествия вне контроля любой из сторон, которое существенно влияет на выполнение Услуг, например: стихийное бедствие (пожары, взрывы, землетрясения, ураганы, стихийные бедствия). стихийные бедствия, наводнения, ураганы или заражение), или война, вторжение, действия иностранных врагов, эмбарго или другие враждебные действия (независимо от того, объявлены они или нет), или любая опасная ситуация, созданная вне контроля любой из сторон, такая как бунт, беспорядки, ядерная утечка или взрыв, либо акт или угроза терроризма.</t>
   </si>
   <si>
-    <t> Заголовки и заголовки разделов в настоящем Соглашении представлены исключительно для удобства и не должны рассматриваться как часть настоящего Соглашения.</t>
-  </si>
-  <si>
-    <t> Каждая команда обязана играть со всеми подходящими членами команды в каждой игре, за исключением случаев, когда игрок получил травму или был удален по дисциплинарным причинам.</t>
-  </si>
-  <si>
-    <t> Возрастная группа может быть добавлена, если имеется достаточное количество участников в возрастной группе 30 лет и старше.</t>
+    <t>Заголовки и заголовки разделов в настоящем Соглашении представлены исключительно для удобства и не должны рассматриваться как часть настоящего Соглашения.</t>
+  </si>
+  <si>
+    <t>Каждая команда обязана играть со всеми подходящими членами команды в каждой игре, за исключением случаев, когда игрок получил травму или был удален по дисциплинарным причинам.</t>
+  </si>
+  <si>
+    <t>Возрастная группа может быть добавлена, если имеется достаточное количество участников в возрастной группе 30 лет и старше.</t>
   </si>
   <si>
     <t>Если делегат Объединенного спорта определит, что игрок доминирует в игре, это должностное лицо должно наказать тренера.</t>
   </si>
   <si>
-    <t> Любое лицо, команда или делегация, которые отказываются соревноваться или участвовать в Играх Специальной Олимпиады или мероприятиях на основании этнического происхождения, пола, религии, политической принадлежности их коллег-спортсменов Специальной Олимпиады в этих мероприятиях, будут дисквалифицированы от участия в Играх или мероприятиях Специальной Олимпиады. рассматриваемое мероприятие и не имеет права на награды или признание на этом мероприятии</t>
-  </si>
-  <si>
-    <t> Если какой-либо член команды находится в возрасте от 14 до 17 лет, разница между самым младшим и старшим членом команды не должна превышать 5 лет.</t>
-  </si>
-  <si>
-    <t> Вице-президент Соединенных Штатов является председателем Сената, но не имеет права голоса, если только голоса не разделятся поровну.</t>
+    <t>Любое лицо, команда или делегация, которые отказываются соревноваться или участвовать в Играх Специальной Олимпиады или мероприятиях на основании этнического происхождения, пола, религии, политической принадлежности их коллег-спортсменов Специальной Олимпиады в этих мероприятиях, будут дисквалифицированы от участия в Играх или мероприятиях Специальной Олимпиады. рассматриваемое мероприятие и не имеет права на награды или признание на этом мероприятии</t>
+  </si>
+  <si>
+    <t>Если какой-либо член команды находится в возрасте от 14 до 17 лет, разница между самым младшим и старшим членом команды не должна превышать 5 лет.</t>
+  </si>
+  <si>
+    <t>Вице-президент Соединенных Штатов является председателем Сената, но не имеет права голоса, если только голоса не разделятся поровну.</t>
   </si>
   <si>
     <t>Судьи как высшего, так и низшего суда занимают свои должности во время хорошего поведения и в установленные сроки получают за свою службу вознаграждение, которое не может быть уменьшено во время их пребывания в должности.</t>
   </si>
   <si>
-    <t> Настоящим запрещается транспортировка или ввоз в любой штат, территорию или владение Соединенных Штатов для доставки или использования там опьяняющих напитков в нарушение их законодательства.</t>
-  </si>
-  <si>
-    <t> Что касается иска Томаса о неэффективной помощи, коллегия установила, что суд штата не был объективно необоснованным, признав адвоката неэффективным, объясняя это тем, что адвокат не расследовал возражения присяжных номер пять и присяжных номер шесть против межрасовых браков или деторождения. вероятно, это было тактическое решение.</t>
-  </si>
-  <si>
-    <t> Если заявители добиваются и не получают ни ускоренного рассмотрения, ни временных средств правовой защиты от судов Нью-Йорка, они могут вернуться в этот Суд.</t>
+    <t>Настоящим запрещается транспортировка или ввоз в любой штат, территорию или владение Соединенных Штатов для доставки или использования там опьяняющих напитков в нарушение их законодательства.</t>
+  </si>
+  <si>
+    <t>Что касается иска Томаса о неэффективной помощи, коллегия установила, что суд штата не был объективно необоснованным, признав адвоката неэффективным, объясняя это тем, что адвокат не расследовал возражения присяжных номер пять и присяжных номер шесть против межрасовых браков или деторождения. вероятно, это было тактическое решение.</t>
+  </si>
+  <si>
+    <t>Если заявители добиваются и не получают ни ускоренного рассмотрения, ни временных средств правовой защиты от судов Нью-Йорка, они могут вернуться в этот Суд.</t>
   </si>
   <si>
     <t>Наш долг – отстаивать Конституцию, даже если это вызывает споры.</t>
   </si>
   <si>
-    <t> Другие законодательные акты включают Закон о трудовых отношениях, Закон о безопасности, здоровье и социальном обеспечении на производстве и Закон о компенсациях работникам.</t>
-  </si>
-  <si>
-    <t> В период с 2006 по 2010 год и с 2010 по 2014 год наблюдалось небольшое увеличение участия женщин в Конгрессе: с 12 до 16 процентов в Сенате и с 10 до 12 процентов в Палате представителей;</t>
-  </si>
-  <si>
-    <t> К показателям с ошибочными/неполными данными относятся показатели детской смертности и охвата образованием.</t>
-  </si>
-  <si>
-    <t> Мы особенно обеспокоены тем фактом, что эти мины имеют неизбирательное воздействие.</t>
-  </si>
-  <si>
-    <t> Крайний срок подачи заявок на стипендии на 2010–2011 годы был установлен на 15 августа 2009 года, а Комитет по отбору стипендий соберется в четвертом квартале 2009 года для рассмотрения заявок и присуждения стипендий на 2010–2011 годы.</t>
-  </si>
-  <si>
-    <t> Бактерии обычно имеют длину в несколько миллионных долей метра.</t>
+    <t>Другие законодательные акты включают Закон о трудовых отношениях, Закон о безопасности, здоровье и социальном обеспечении на производстве и Закон о компенсациях работникам.</t>
+  </si>
+  <si>
+    <t>В период с 2006 по 2010 год и с 2010 по 2014 год наблюдалось небольшое увеличение участия женщин в Конгрессе: с 12 до 16 процентов в Сенате и с 10 до 12 процентов в Палате представителей;</t>
+  </si>
+  <si>
+    <t>К показателям с ошибочными/неполными данными относятся показатели детской смертности и охвата образованием.</t>
+  </si>
+  <si>
+    <t>Мы особенно обеспокоены тем фактом, что эти мины имеют неизбирательное воздействие.</t>
+  </si>
+  <si>
+    <t>Крайний срок подачи заявок на стипендии на 2010–2011 годы был установлен на 15 августа 2009 года, а Комитет по отбору стипендий соберется в четвертом квартале 2009 года для рассмотрения заявок и присуждения стипендий на 2010–2011 годы.</t>
+  </si>
+  <si>
+    <t>Бактерии обычно имеют длину в несколько миллионных долей метра.</t>
   </si>
   <si>
     <t>Наш маленький земной шар — это сумасшедший дом сотен миллиардов миров.</t>
   </si>
   <si>
-    <t> В качимбо так приятно, когда ты находишься внутри с чем-то теплым и слышишь, как оно мчится сквозь деревья снаружи.</t>
-  </si>
-  <si>
-    <t> Иногда они могут омылять, при этом жировые отложения буквально превращаются в мылоподобное вещество, но это занимает довольно много времени, поэтому я сомневаюсь, что это произошло здесь.</t>
-  </si>
-  <si>
-    <t> Именно из-за наших опасений по поводу эндогенности этих городов, эти три города исключены из всех анализов, как и Голдсборо, город, где марш закончился после капитуляции оппозиции Конфедерации.</t>
-  </si>
-  <si>
-    <t> Наше включение в основную спецификацию как фиксированных эффектов округа, так и фиксированных эффектов по десятилетиям, а также гибкого контроля, основанного на переменных, измеренных в 1860 году, делает это маловероятным, но не может исключать такую возможность.</t>
-  </si>
-  <si>
-    <t> В частности, мы уделяем особое внимание росту аренды ферм и издольства в послевоенный период.</t>
+    <t>В качимбо так приятно, когда ты находишься внутри с чем-то теплым и слышишь, как оно мчится сквозь деревья снаружи.</t>
+  </si>
+  <si>
+    <t>Иногда они могут омылять, при этом жировые отложения буквально превращаются в мылоподобное вещество, но это занимает довольно много времени, поэтому я сомневаюсь, что это произошло здесь.</t>
+  </si>
+  <si>
+    <t>Именно из-за наших опасений по поводу эндогенности этих городов, эти три города исключены из всех анализов, как и Голдсборо, город, где марш закончился после капитуляции оппозиции Конфедерации.</t>
+  </si>
+  <si>
+    <t>Наше включение в основную спецификацию как фиксированных эффектов округа, так и фиксированных эффектов по десятилетиям, а также гибкого контроля, основанного на переменных, измеренных в 1860 году, делает это маловероятным, но не может исключать такую возможность.</t>
+  </si>
+  <si>
+    <t>В частности, мы уделяем особое внимание росту аренды ферм и издольства в послевоенный период.</t>
   </si>
   <si>
     <t>Совсем недавно Хан (2015) показал, что нерациональное распределение ресурсов во время войны из-за снижения географической мобильности и увеличения отдачи от военных технологий было кратковременным и не препятствовало долгосрочному потенциалу технологического прогресса.</t>
   </si>
   <si>
-    <t> В предвоенный период в сельском хозяйстве использовались «лошади Шермана», старые, «больные» и «обиженные» животные, которых армия Союза обменяла на новых лошадей, проезжавших по маршруту марша.</t>
-  </si>
-  <si>
-    <t> Дэвид Кэрон предупредил, что форма статей затмит разногласия по существу: что, очарованные их аккуратной формой, специалисты по международному праву упустят из виду некоторые глубокие неопределенности, которые сохраняются в некоторых частях статей.</t>
-  </si>
-  <si>
-    <t> И, очевидно, работа Комиссии по кодированию выкристаллизовала и сформировала новые концепции и прояснила другие.</t>
-  </si>
-  <si>
-    <t> Эти дискуссии имеют тенденцию просто угасать после того, как они разветвляются и запутываются в многочисленных деталях и точках зрения.</t>
+    <t>В предвоенный период в сельском хозяйстве использовались «лошади Шермана», старые, «больные» и «обиженные» животные, которых армия Союза обменяла на новых лошадей, проезжавших по маршруту марша.</t>
+  </si>
+  <si>
+    <t>Дэвид Кэрон предупредил, что форма статей затмит разногласия по существу: что, очарованные их аккуратной формой, специалисты по международному праву упустят из виду некоторые глубокие неопределенности, которые сохраняются в некоторых частях статей.</t>
+  </si>
+  <si>
+    <t>И, очевидно, работа Комиссии по кодированию выкристаллизовала и сформировала новые концепции и прояснила другие.</t>
+  </si>
+  <si>
+    <t>Эти дискуссии имеют тенденцию просто угасать после того, как они разветвляются и запутываются в многочисленных деталях и точках зрения.</t>
   </si>
   <si>
     <t>Я осознаю смерть внутри себя, утверждает Лейрис, следовательно, должно было произойти событие, в ходе которого она была создана.</t>
   </si>
   <si>
-    <t> Есть два вида препятствий на пути к самопознанию, и оба можно прочитать в знаменитой метафоре Фрейда о пупе сновидения.</t>
-  </si>
-  <si>
-    <t> То, что мы не можем обнаружить, говорит здесь Фрейд, — это не одна точка среди многих, а точка, сам центр, пуп, который соединяет нас с нашими глубочайшими истоками.</t>
-  </si>
-  <si>
-    <t> Когда неправильное или неполное мышление способствовало выбору неправильного ответа, требовалось время, чтобы помочь ученику или группе исправить или перенаправить свое мышление в правильном направлении.</t>
-  </si>
-  <si>
-    <t> С этой целью мы разработали серию занятий по обучению/оценке в малых группах (SGL/A), включающих в себя практику извлечения оценок со структурированной обратной связью, которые мы включили в наш курс доклинической нейроанатомии.</t>
-  </si>
-  <si>
-    <t> Мы разделили наш класс из 42 учеников на шесть групп по семь человек в каждой, причем каждой группе было поручено работать вместе над ответами на вопросы типа ШАГ 1.</t>
+    <t>Есть два вида препятствий на пути к самопознанию, и оба можно прочитать в знаменитой метафоре Фрейда о пупе сновидения.</t>
+  </si>
+  <si>
+    <t>То, что мы не можем обнаружить, говорит здесь Фрейд, — это не одна точка среди многих, а точка, сам центр, пуп, который соединяет нас с нашими глубочайшими истоками.</t>
+  </si>
+  <si>
+    <t>Когда неправильное или неполное мышление способствовало выбору неправильного ответа, требовалось время, чтобы помочь ученику или группе исправить или перенаправить свое мышление в правильном направлении.</t>
+  </si>
+  <si>
+    <t>С этой целью мы разработали серию занятий по обучению/оценке в малых группах (SGL/A), включающих в себя практику извлечения оценок со структурированной обратной связью, которые мы включили в наш курс доклинической нейроанатомии.</t>
+  </si>
+  <si>
+    <t>Мы разделили наш класс из 42 учеников на шесть групп по семь человек в каждой, причем каждой группе было поручено работать вместе над ответами на вопросы типа ШАГ 1.</t>
   </si>
   <si>
     <t>Но даже с политической точки зрения процент исследований, придерживающихся чисто политориентированной точки зрения, резко снижается.</t>
   </si>
   <si>
-    <t> В своих обширных обзорах литературы по политической коммуникации Бьюси и Д'Анджело (1999, 2004) выделяют три устойчивых критических замечания в отношении прессы в политике, сформулированных как устойчивая критика средств массовой информации и демократии: гипотеза видеонедомогания, теория вторжения СМИ и социальная теория. диссертация по эрозии.</t>
-  </si>
-  <si>
-    <t> Предвзятость политической науки, ранее выявленная в литературе, по-видимому, утихла, по крайней мере, в двух проанализированных здесь журналах, возможно, из-за стремительного развития новых платформ и технологий доставки, которые непредвиденным образом интегрировались в политику.</t>
-  </si>
-  <si>
-    <t> Примечательно, что, как и в случае с коммуникацией, такая конвергенция позволяет обмениваться знаниями или даже вести переговоры между заинтересованными сторонами, поскольку все могут говорить на одном и том же «языке».</t>
+    <t>В своих обширных обзорах литературы по политической коммуникации Бьюси и Д'Анджело (1999, 2004) выделяют три устойчивых критических замечания в отношении прессы в политике, сформулированных как устойчивая критика средств массовой информации и демократии: гипотеза видеонедомогания, теория вторжения СМИ и социальная теория. диссертация по эрозии.</t>
+  </si>
+  <si>
+    <t>Предвзятость политической науки, ранее выявленная в литературе, по-видимому, утихла, по крайней мере, в двух проанализированных здесь журналах, возможно, из-за стремительного развития новых платформ и технологий доставки, которые непредвиденным образом интегрировались в политику.</t>
+  </si>
+  <si>
+    <t>Примечательно, что, как и в случае с коммуникацией, такая конвергенция позволяет обмениваться знаниями или даже вести переговоры между заинтересованными сторонами, поскольку все могут говорить на одном и том же «языке».</t>
   </si>
   <si>
     <t>Учитывая известные ограничения и структуру среды, традиционные методы планирования движения могут надежно находить пути без ограничений, соединяющие целевые начальные и целевые конфигурации [1], даже в задачах с длинным горизонтом.</t>
   </si>
   <si>
-    <t> Базовые методы не тренируют политики навыков на достаточно разнообразном наборе объектов и поэтому часто не могут выполнить задачи за 10 шагов.</t>
-  </si>
-  <si>
-    <t> человек в розовых штанах играет на гитаре</t>
-  </si>
-  <si>
-    <t> Маленькая девочка режет бумагу.</t>
-  </si>
-  <si>
-    <t> Номер на мусорном ящике — 66.</t>
-  </si>
-  <si>
-    <t> Большая группа людей ждет на вокзале.</t>
-  </si>
-  <si>
-    <t> Маленький мальчик сидит на плечах отца, держа в руках воздушные шары.</t>
-  </si>
-  <si>
-    <t> Просто потому, что ты боишься океана...</t>
-  </si>
-  <si>
-    <t> Для рыбы-клоуна он не такой уж и смешной.</t>
-  </si>
-  <si>
-    <t> Я слышал, что он взял на себя троих.</t>
-  </si>
-  <si>
-    <t> Мне теперь страшно!</t>
-  </si>
-  <si>
-    <t> Я вспомнил, что там было сказано.</t>
-  </si>
-  <si>
-    <t> Мальчик стоит на насыпи и бросает мяч кетчеру.</t>
-  </si>
-  <si>
-    <t> Мужчина садится и стрижется, пока женщина говорит об этом.</t>
+    <t>Базовые методы не тренируют политики навыков на достаточно разнообразном наборе объектов и поэтому часто не могут выполнить задачи за 10 шагов.</t>
+  </si>
+  <si>
+    <t>человек в розовых штанах играет на гитаре</t>
+  </si>
+  <si>
+    <t>Маленькая девочка режет бумагу.</t>
+  </si>
+  <si>
+    <t>Номер на мусорном ящике — 66.</t>
+  </si>
+  <si>
+    <t>Большая группа людей ждет на вокзале.</t>
+  </si>
+  <si>
+    <t>Маленький мальчик сидит на плечах отца, держа в руках воздушные шары.</t>
+  </si>
+  <si>
+    <t>Просто потому, что ты боишься океана...</t>
+  </si>
+  <si>
+    <t>Для рыбы-клоуна он не такой уж и смешной.</t>
+  </si>
+  <si>
+    <t>Я слышал, что он взял на себя троих.</t>
+  </si>
+  <si>
+    <t>Мне теперь страшно!</t>
+  </si>
+  <si>
+    <t>Я вспомнил, что там было сказано.</t>
+  </si>
+  <si>
+    <t>Мальчик стоит на насыпи и бросает мяч кетчеру.</t>
+  </si>
+  <si>
+    <t>Мужчина садится и стрижется, пока женщина говорит об этом.</t>
   </si>
   <si>
     <t>Мужчина стоит на улице в снегу и бросает топор в яблочко Мужчина наливает пиво в стакан Сэмюэля Адамса.</t>
   </si>
   <si>
-    <t> Две женщины на сцене вручают награды трем мужчинам в деловых костюмах.</t>
-  </si>
-  <si>
-    <t> Мужчина увидел доску HDFC и повернул голову, а мужчина снял средства в банкомате. Милый ребенок пьет руками, а другой человек помогает.</t>
-  </si>
-  <si>
-    <t> Слесарь использует сварочное оборудование для работы с большой металлической пластиной.</t>
-  </si>
-  <si>
-    <t> Мы должны сделать все возможное, чтобы вернуться.</t>
-  </si>
-  <si>
-    <t> Я думаю, что здесь просто «штуки».</t>
-  </si>
-  <si>
-    <t> Больше никаких обнаженных ногтей и гнезд опоссумов.</t>
-  </si>
-  <si>
-    <t> Я никогда не хотел лгать, но мне пришлось остаться.</t>
-  </si>
-  <si>
-    <t> Возможно, нам стоит сделать перерыв.</t>
-  </si>
-  <si>
-    <t> Девушкам по имени Миранда никогда не покажется смешным, когда им говоришь, что они имеют право хранить молчание.</t>
-  </si>
-  <si>
-    <t> Я бы хотел быть перцем, чтобы заниматься халапеньо</t>
-  </si>
-  <si>
-    <t> Когда у тебя замерзает мозг от Маргариты, ты знаешь, что у тебя проблемы.</t>
-  </si>
-  <si>
-    <t> Если вы когда-нибудь увидите жуткого клоуна... обратитесь к жонглеру.</t>
+    <t>Две женщины на сцене вручают награды трем мужчинам в деловых костюмах.</t>
+  </si>
+  <si>
+    <t>Мужчина увидел доску HDFC и повернул голову, а мужчина снял средства в банкомате. Милый ребенок пьет руками, а другой человек помогает.</t>
+  </si>
+  <si>
+    <t>Слесарь использует сварочное оборудование для работы с большой металлической пластиной.</t>
+  </si>
+  <si>
+    <t>Мы должны сделать все возможное, чтобы вернуться.</t>
+  </si>
+  <si>
+    <t>Я думаю, что здесь просто «штуки».</t>
+  </si>
+  <si>
+    <t>Больше никаких обнаженных ногтей и гнезд опоссумов.</t>
+  </si>
+  <si>
+    <t>Я никогда не хотел лгать, но мне пришлось остаться.</t>
+  </si>
+  <si>
+    <t>Возможно, нам стоит сделать перерыв.</t>
+  </si>
+  <si>
+    <t>Девушкам по имени Миранда никогда не покажется смешным, когда им говоришь, что они имеют право хранить молчание.</t>
+  </si>
+  <si>
+    <t>Я бы хотел быть перцем, чтобы заниматься халапеньо</t>
+  </si>
+  <si>
+    <t>Когда у тебя замерзает мозг от Маргариты, ты знаешь, что у тебя проблемы.</t>
+  </si>
+  <si>
+    <t>Если вы когда-нибудь увидите жуткого клоуна... обратитесь к жонглеру.</t>
   </si>
   <si>
     <t>Ученые обнаружили... ...что людям наплевать на апатию.</t>
   </si>
   <si>
-    <t> Все это осуществил, все сделал гнусный человек: подполковник Дюпати де Клам, в то время всего лишь комендант.</t>
-  </si>
-  <si>
-    <t> а потом почти за одну ночь зубы и волосы и весь возраст и тебе 50 примерно лет 10., потом с большим лязгом как ржавая цепь тебе 60 и так далее.</t>
-  </si>
-  <si>
-    <t> Это чистая гордость, как было тогда.</t>
-  </si>
-  <si>
-    <t> Я не уверен, что вы подразумеваете под хитом, если только вы не имеете в виду все популярные каналы, которые вы сможете посмотреть после того, как воспользуетесь моим сервисом.. Привет.. Привет.</t>
-  </si>
-  <si>
-    <t> Это верхняя труба Fit Bike VH2 диаметром 20,75 дюйма.</t>
-  </si>
-  <si>
-    <t> Меня интересует этот товар.</t>
-  </si>
-  <si>
-    <t> Это отличный велосипед, время езды на нем минимальное, он всегда хранится в гараже и на нем ездят взрослые.</t>
-  </si>
-  <si>
-    <t> У нас есть все варианты прямо сейчас, хотя на данный момент у нас есть только пара квартир с 3 спальнями.</t>
-  </si>
-  <si>
-    <t> Могу ли я помочь вам, сэр ?</t>
-  </si>
-  <si>
-    <t> Я не знаю, почему я вышла за него замуж.</t>
-  </si>
-  <si>
-    <t> Хотел бы я знать, кто передвинул наши цветочные горшки.</t>
-  </si>
-  <si>
-    <t> Что сказал босс?</t>
+    <t>Все это осуществил, все сделал гнусный человек: подполковник Дюпати де Клам, в то время всего лишь комендант.</t>
+  </si>
+  <si>
+    <t>а потом почти за одну ночь зубы и волосы и весь возраст и тебе 50 примерно лет 10., потом с большим лязгом как ржавая цепь тебе 60 и так далее.</t>
+  </si>
+  <si>
+    <t>Это чистая гордость, как было тогда.</t>
+  </si>
+  <si>
+    <t>Я не уверен, что вы подразумеваете под хитом, если только вы не имеете в виду все популярные каналы, которые вы сможете посмотреть после того, как воспользуетесь моим сервисом.. Привет.. Привет.</t>
+  </si>
+  <si>
+    <t>Это верхняя труба Fit Bike VH2 диаметром 20,75 дюйма.</t>
+  </si>
+  <si>
+    <t>Меня интересует этот товар.</t>
+  </si>
+  <si>
+    <t>Это отличный велосипед, время езды на нем минимальное, он всегда хранится в гараже и на нем ездят взрослые.</t>
+  </si>
+  <si>
+    <t>У нас есть все варианты прямо сейчас, хотя на данный момент у нас есть только пара квартир с 3 спальнями.</t>
+  </si>
+  <si>
+    <t>Могу ли я помочь вам, сэр ?</t>
+  </si>
+  <si>
+    <t>Я не знаю, почему я вышла за него замуж.</t>
+  </si>
+  <si>
+    <t>Хотел бы я знать, кто передвинул наши цветочные горшки.</t>
+  </si>
+  <si>
+    <t>Что сказал босс?</t>
   </si>
   <si>
     <t>Не могли бы вы сказать мне, где вы положили мою книгу?</t>
   </si>
   <si>
-    <t> Ставьте будильник на 9 утра каждую пятницу</t>
-  </si>
-  <si>
-    <t> Поставь будильник сегодня на 18:00.</t>
-  </si>
-  <si>
-    <t> сбрось все мои будильники, пожалуйста</t>
-  </si>
-  <si>
-    <t> сколько еще времени пройдет, пока у меня не зазвонит будильник</t>
-  </si>
-  <si>
-    <t> Через какое время сработает мой будильник?</t>
-  </si>
-  <si>
-    <t> Куча разбитых изображений, где бьет солнце</t>
-  </si>
-  <si>
-    <t> Спасибо.</t>
-  </si>
-  <si>
-    <t> Тем не менее, сильно простудился</t>
-  </si>
-  <si>
-    <t> Под этой красной скалой есть тень</t>
-  </si>
-  <si>
-    <t> Леди ситуаций</t>
-  </si>
-  <si>
-    <t> После 20 месяцев напряженной работы пандемия больше не контролирует нашу жизнь.</t>
-  </si>
-  <si>
-    <t> Вы слышали, как я говорил это до тошноты: я не знаю, где написано, что мы не можем быть промышленной столицей мира.</t>
-  </si>
-  <si>
-    <t> Давайте проголосуем за Карен Басс на пост мэра.</t>
-  </si>
-  <si>
-    <t> Но подавляющее большинство американского народа поддерживает некоторые элементы моей экономической программы — от восстановления американских дорог и мостов; снижению стоимости рецептурных лекарств; историческим инвестициям в борьбу с климатическим кризисом; обеспечить, чтобы крупные корпорации начали платить свою справедливую долю налогов.</t>
+    <t>Ставьте будильник на 9 утра каждую пятницу</t>
+  </si>
+  <si>
+    <t>Поставь будильник сегодня на 18:00.</t>
+  </si>
+  <si>
+    <t>сбрось все мои будильники, пожалуйста</t>
+  </si>
+  <si>
+    <t>сколько еще времени пройдет, пока у меня не зазвонит будильник</t>
+  </si>
+  <si>
+    <t>Через какое время сработает мой будильник?</t>
+  </si>
+  <si>
+    <t>Куча разбитых изображений, где бьет солнце</t>
+  </si>
+  <si>
+    <t>Спасибо.</t>
+  </si>
+  <si>
+    <t>Тем не менее, сильно простудился</t>
+  </si>
+  <si>
+    <t>Под этой красной скалой есть тень</t>
+  </si>
+  <si>
+    <t>Леди ситуаций</t>
+  </si>
+  <si>
+    <t>После 20 месяцев напряженной работы пандемия больше не контролирует нашу жизнь.</t>
+  </si>
+  <si>
+    <t>Вы слышали, как я говорил это до тошноты: я не знаю, где написано, что мы не можем быть промышленной столицей мира.</t>
+  </si>
+  <si>
+    <t>Давайте проголосуем за Карен Басс на пост мэра.</t>
+  </si>
+  <si>
+    <t>Но подавляющее большинство американского народа поддерживает некоторые элементы моей экономической программы — от восстановления американских дорог и мостов; снижению стоимости рецептурных лекарств; историческим инвестициям в борьбу с климатическим кризисом; обеспечить, чтобы крупные корпорации начали платить свою справедливую долю налогов.</t>
   </si>
   <si>
     <t>И я уверен, что эта политика работает, что мы на правильном пути и нам нужно ее придерживаться.</t>
   </si>
   <si>
-    <t> Поскольку они жили рядом с музыкальными столицами, такими как Нью-Йорк, Чикаго или Лос-Анджелес, по выходным они учились в таких местах, как Джульярд.</t>
-  </si>
-  <si>
-    <t> Если вы с ними не столкнетесь?</t>
-  </si>
-  <si>
-    <t> Эти живые мышцы эффективно преобразуют химическую энергию, поступающую из питательных веществ, в мышечные сокращения.</t>
-  </si>
-  <si>
-    <t> В Соединенных Штатах студенты с низкими доходами бросают колледжи рекордными темпами из-за препятствий, с которыми они сталкиваются.</t>
-  </si>
-  <si>
-    <t> Что вы хотите, чтобы произошло?</t>
-  </si>
-  <si>
-    <t> Где получить 7 сертификат?</t>
-  </si>
-  <si>
-    <t> Какие интересные факты об индуистских храмах?</t>
-  </si>
-  <si>
-    <t> Сложная ли часть сборки квадрокоптера?</t>
-  </si>
-  <si>
-    <t> Где я могу найти простое и понятное решение о том, как Firebase похудеть?</t>
-  </si>
-  <si>
-    <t> Почему мои котята на него шипят?</t>
-  </si>
-  <si>
-    <t> Какой класс был у UNIX?</t>
-  </si>
-  <si>
-    <t> Однако я не был инженером, поэтому тот, кто учился/был в инженерном колледже, может поправить меня, если я ошибаюсь.</t>
+    <t>Поскольку они жили рядом с музыкальными столицами, такими как Нью-Йорк, Чикаго или Лос-Анджелес, по выходным они учились в таких местах, как Джульярд.</t>
+  </si>
+  <si>
+    <t>Если вы с ними не столкнетесь?</t>
+  </si>
+  <si>
+    <t>Эти живые мышцы эффективно преобразуют химическую энергию, поступающую из питательных веществ, в мышечные сокращения.</t>
+  </si>
+  <si>
+    <t>В Соединенных Штатах студенты с низкими доходами бросают колледжи рекордными темпами из-за препятствий, с которыми они сталкиваются.</t>
+  </si>
+  <si>
+    <t>Что вы хотите, чтобы произошло?</t>
+  </si>
+  <si>
+    <t>Где получить 7 сертификат?</t>
+  </si>
+  <si>
+    <t>Какие интересные факты об индуистских храмах?</t>
+  </si>
+  <si>
+    <t>Сложная ли часть сборки квадрокоптера?</t>
+  </si>
+  <si>
+    <t>Где я могу найти простое и понятное решение о том, как Firebase похудеть?</t>
+  </si>
+  <si>
+    <t>Почему мои котята на него шипят?</t>
+  </si>
+  <si>
+    <t>Какой класс был у UNIX?</t>
+  </si>
+  <si>
+    <t>Однако я не был инженером, поэтому тот, кто учился/был в инженерном колледже, может поправить меня, если я ошибаюсь.</t>
   </si>
   <si>
     <t>Так что да, вам нужно отправить все результаты.</t>
   </si>
   <si>
-    <t> Вы все еще можете спешить весной, если хотите более «традиционного» опыта.</t>
-  </si>
-  <si>
-    <t> Я учусь на майоре, и у меня все хорошо.</t>
+    <t>Вы все еще можете спешить весной, если хотите более «традиционного» опыта.</t>
+  </si>
+  <si>
+    <t>Я учусь на майоре, и у меня все хорошо.</t>
   </si>
   <si>
     <t xml:space="preserve"> Я хочу переименовать базу данных, но постоянно получаю сообщение об ошибке «не удалось получить монопольную блокировку» базы данных, что означает, что некоторые соединения все еще активны.</t>
   </si>
   <si>
-    <t> Что на самом деле происходит, что вызывает ошибку svn:checksum и как лучше всего ее исправить.</t>
-  </si>
-  <si>
-    <t> Я ищу лучший способ регистрации ошибок в приложении ASP.NET.</t>
-  </si>
-  <si>
-    <t> Значение, указанное в качестве текущего пароля, неверно.</t>
-  </si>
-  <si>
-    <t> Большинство этих настроек предназначены для настройки определенных бизнес-правил, но есть и другие вещи.</t>
-  </si>
-  <si>
-    <t> Я настолько умен, что иногда не понимаю ни единого слова из того, что говорю.</t>
-  </si>
-  <si>
-    <t> Не следует зацикливаться на мечтах и забывать жить.</t>
-  </si>
-  <si>
-    <t> Пока читал, я влюбился в то, как засыпаешь: медленно, а потом сразу.</t>
+    <t>Что на самом деле происходит, что вызывает ошибку svn:checksum и как лучше всего ее исправить.</t>
+  </si>
+  <si>
+    <t>Я ищу лучший способ регистрации ошибок в приложении ASP.NET.</t>
+  </si>
+  <si>
+    <t>Значение, указанное в качестве текущего пароля, неверно.</t>
+  </si>
+  <si>
+    <t>Большинство этих настроек предназначены для настройки определенных бизнес-правил, но есть и другие вещи.</t>
+  </si>
+  <si>
+    <t>Я настолько умен, что иногда не понимаю ни единого слова из того, что говорю.</t>
+  </si>
+  <si>
+    <t>Не следует зацикливаться на мечтах и забывать жить.</t>
+  </si>
+  <si>
+    <t>Пока читал, я влюбился в то, как засыпаешь: медленно, а потом сразу.</t>
   </si>
   <si>
     <t>Мы принимаем ту любовь, которую, как мы думаем, мы заслуживаем.</t>
   </si>
   <si>
-    <t> Так много книг, так мало времени.</t>
-  </si>
-  <si>
-    <t> Джасинда Ардерн и Лейбористская партия Новой Зеландии подкупили новозеландские СМИ, чтобы выиграть переизбрание, и в Новой Зеландии происходят фальсификации выборов.</t>
-  </si>
-  <si>
-    <t> В Африке каждую минуту умирает ребенок из-за (малярии).</t>
-  </si>
-  <si>
-    <t> В Сингапуре появился новый вариант Covid-19, который чрезвычайно опасен</t>
-  </si>
-  <si>
-    <t> Сегодня 27 миллионов человек находятся в рабстве.</t>
-  </si>
-  <si>
-    <t> Трамп начнет турне с Биллом О'Рейли</t>
-  </si>
-  <si>
-    <t> Судья округа Фултон в Джорджии удовлетворил ходатайство, разрешающее вскрывать и проверять на предмет фальсификации бюллетени для заочного голосования 2020 года, открывая путь для новой проверки результатов выборов.</t>
-  </si>
-  <si>
-    <t> Я уже даже не говорю об этом, Канада — не единственная страна, где есть Торонто.</t>
-  </si>
-  <si>
-    <t> К сожалению, это не та борьба, которая будет на следующих выборах, так что это спорный вопрос...</t>
-  </si>
-  <si>
-    <t> Помните речь Трампа «Удача, очень важное слово»?</t>
+    <t>Так много книг, так мало времени.</t>
+  </si>
+  <si>
+    <t>Джасинда Ардерн и Лейбористская партия Новой Зеландии подкупили новозеландские СМИ, чтобы выиграть переизбрание, и в Новой Зеландии происходят фальсификации выборов.</t>
+  </si>
+  <si>
+    <t>В Африке каждую минуту умирает ребенок из-за (малярии).</t>
+  </si>
+  <si>
+    <t>В Сингапуре появился новый вариант Covid-19, который чрезвычайно опасен</t>
+  </si>
+  <si>
+    <t>Сегодня 27 миллионов человек находятся в рабстве.</t>
+  </si>
+  <si>
+    <t>Трамп начнет турне с Биллом О'Рейли</t>
+  </si>
+  <si>
+    <t>Судья округа Фултон в Джорджии удовлетворил ходатайство, разрешающее вскрывать и проверять на предмет фальсификации бюллетени для заочного голосования 2020 года, открывая путь для новой проверки результатов выборов.</t>
+  </si>
+  <si>
+    <t>Я уже даже не говорю об этом, Канада — не единственная страна, где есть Торонто.</t>
+  </si>
+  <si>
+    <t>К сожалению, это не та борьба, которая будет на следующих выборах, так что это спорный вопрос...</t>
+  </si>
+  <si>
+    <t>Помните речь Трампа «Удача, очень важное слово»?</t>
   </si>
   <si>
     <t>Финская Exel Composites, технологическая компания, которая проектирует, производит и продает композитные профили и трубы для различного промышленного применения, сообщает, что ее чистые продажи снизились на 0,6% во втором квартале 2010 года до 19,2 млн евро с 19,3 млн евро за соответствующий период в 2009 .</t>
   </si>
   <si>
-    <t> Сделку планируется профинансировать за счет рыночного кредита в размере 40 млн евро, предоставленного Standard Chartered Bank Hong Kong.</t>
-  </si>
-  <si>
-    <t> Консолидированная прибыль до налогообложения снизилась на 69,2% до 41,0 млн евро с 133,1 млн евро в 2007 году.</t>
-  </si>
-  <si>
-    <t> В третьем квартале 2007 года чистый объем продаж составил 25,95 млн евро, операционная прибыль – 3,88 млн евро.</t>
-  </si>
-  <si>
-    <t> Каждая акция дает право одного голоса.</t>
-  </si>
-  <si>
-    <t> «Лимон» Яничи Браво и Бретта Гельмана исследует посредственность белых мужчин в поистине тревожной инди-игре.</t>
-  </si>
-  <si>
-    <t> «Действие» Эми Роуз Шпигель это понимает.</t>
-  </si>
-  <si>
-    <t> Если бы это была фантастика.</t>
-  </si>
-  <si>
-    <t> Писатели будут писать, а читатели будут читать – какими бы отвлекающими факторами вы нас ни бросали.</t>
+    <t>Сделку планируется профинансировать за счет рыночного кредита в размере 40 млн евро, предоставленного Standard Chartered Bank Hong Kong.</t>
+  </si>
+  <si>
+    <t>Консолидированная прибыль до налогообложения снизилась на 69,2% до 41,0 млн евро с 133,1 млн евро в 2007 году.</t>
+  </si>
+  <si>
+    <t>В третьем квартале 2007 года чистый объем продаж составил 25,95 млн евро, операционная прибыль – 3,88 млн евро.</t>
+  </si>
+  <si>
+    <t>Каждая акция дает право одного голоса.</t>
+  </si>
+  <si>
+    <t>«Лимон» Яничи Браво и Бретта Гельмана исследует посредственность белых мужчин в поистине тревожной инди-игре.</t>
+  </si>
+  <si>
+    <t>«Действие» Эми Роуз Шпигель это понимает.</t>
+  </si>
+  <si>
+    <t>Если бы это была фантастика.</t>
+  </si>
+  <si>
+    <t>Писатели будут писать, а читатели будут читать – какими бы отвлекающими факторами вы нас ни бросали.</t>
   </si>
   <si>
     <t>Художница Тега Брейн создала веб-сайт, на котором перечислены все, что может быть потеряно, если финансирование искусства прекратится.</t>
   </si>
   <si>
-    <t> Каждую неделю в многочисленных блогах, освещающих махинации империи Apple, появляются неподтвержденные слухи, откровенные домыслы.</t>
-  </si>
-  <si>
-    <t> Традиционные ритейлеры активно развивают электронную коммерцию, но их усилия не увенчались успехом.</t>
-  </si>
-  <si>
-    <t> Динамики Bluetooth за последние несколько лет становились все симпатичнее и симпатичнее: с кирпичиками, кубиками, сферами и даже черепахами.</t>
-  </si>
-  <si>
-    <t> Особенность виртуальной реальности в том, что она существует уже слишком долго. Помните, когда вторая жизнь была чертовски жаркой? Ну, это было очень давно.</t>
-  </si>
-  <si>
-    <t> Apple только что наняла интересного сотрудника. Слышим ли мы шум двигателей?</t>
-  </si>
-  <si>
-    <t> США объявят дефолт по своим долгам 3 ноября, если Конгресс не примет меры.</t>
-  </si>
-  <si>
-    <t> Суперкомплексы с большими деньгами собрали почти половину президентских денег.</t>
-  </si>
-  <si>
-    <t> «Нас заперли в классе. Мы видели, как наши друзья писали родителям прощание. Мы — эксперты».</t>
+    <t>Каждую неделю в многочисленных блогах, освещающих махинации империи Apple, появляются неподтвержденные слухи, откровенные домыслы.</t>
+  </si>
+  <si>
+    <t>Традиционные ритейлеры активно развивают электронную коммерцию, но их усилия не увенчались успехом.</t>
+  </si>
+  <si>
+    <t>Динамики Bluetooth за последние несколько лет становились все симпатичнее и симпатичнее: с кирпичиками, кубиками, сферами и даже черепахами.</t>
+  </si>
+  <si>
+    <t>Особенность виртуальной реальности в том, что она существует уже слишком долго. Помните, когда вторая жизнь была чертовски жаркой? Ну, это было очень давно.</t>
+  </si>
+  <si>
+    <t>Apple только что наняла интересного сотрудника. Слышим ли мы шум двигателей?</t>
+  </si>
+  <si>
+    <t>США объявят дефолт по своим долгам 3 ноября, если Конгресс не примет меры.</t>
+  </si>
+  <si>
+    <t>Суперкомплексы с большими деньгами собрали почти половину президентских денег.</t>
+  </si>
+  <si>
+    <t>«Нас заперли в классе. Мы видели, как наши друзья писали родителям прощание. Мы — эксперты».</t>
   </si>
   <si>
     <t>Бывший прокурор заявил, что решение ФБР нарушает «самые фундаментальные правила справедливости и беспристрастности».</t>
   </si>
   <si>
-    <t> Она была давним демократом.</t>
-  </si>
-  <si>
-    <t> «Это мои деньги. Мне нужна новая крыша», — сказал он в телефонном интервью. «Это нервирует, зная, что кто-то забирает кусок</t>
-  </si>
-  <si>
-    <t> Как говорит Бетси Майерс в книге «Возьми на себя инициативу», лидеры не бесстрашны, но имеют смелость противостоять своим страхам и преодолевать их.</t>
-  </si>
-  <si>
-    <t> Новая монета — это полезная новость, которую люди жаждали после тяжелого начала 2020 года.</t>
-  </si>
-  <si>
-    <t> Представьте себе, если бы продавец рассказал вам, что на самом деле должно было произойти: «Обычно это платье стоит 250 долларов, но у нас акция».</t>
-  </si>
-  <si>
-    <t> Дэниел Джозеф, 17-летний подросток из Сентенниал, штат Колорадо, обратился в отделение неотложной помощи после того, как его дважды укусила гремучая змея, CBS Denver</t>
-  </si>
-  <si>
-    <t> Да начнется игра.</t>
-  </si>
-  <si>
-    <t> Канадцы Меган Дюамель и Эрик Рэдфорд пошли на большой риск, и он оправдал себя.</t>
-  </si>
-  <si>
-    <t> Если быть точным, Лин уехал в Бруклин.</t>
+    <t>Она была давним демократом.</t>
+  </si>
+  <si>
+    <t>«Это мои деньги. Мне нужна новая крыша», — сказал он в телефонном интервью. «Это нервирует, зная, что кто-то забирает кусок</t>
+  </si>
+  <si>
+    <t>Как говорит Бетси Майерс в книге «Возьми на себя инициативу», лидеры не бесстрашны, но имеют смелость противостоять своим страхам и преодолевать их.</t>
+  </si>
+  <si>
+    <t>Новая монета — это полезная новость, которую люди жаждали после тяжелого начала 2020 года.</t>
+  </si>
+  <si>
+    <t>Представьте себе, если бы продавец рассказал вам, что на самом деле должно было произойти: «Обычно это платье стоит 250 долларов, но у нас акция».</t>
+  </si>
+  <si>
+    <t>Дэниел Джозеф, 17-летний подросток из Сентенниал, штат Колорадо, обратился в отделение неотложной помощи после того, как его дважды укусила гремучая змея, CBS Denver</t>
+  </si>
+  <si>
+    <t>Да начнется игра.</t>
+  </si>
+  <si>
+    <t>Канадцы Меган Дюамель и Эрик Рэдфорд пошли на большой риск, и он оправдал себя.</t>
+  </si>
+  <si>
+    <t>Если быть точным, Лин уехал в Бруклин.</t>
   </si>
   <si>
     <t>Один из сотрудников фронт-офиса сказал, что его команда прекрасно справляется с 5-10 угловыми, пока у игрока длинные руки. Наличие длинных рук позволяет</t>
   </si>
   <si>
-    <t> Упавшая звезда лыжного спорта США покинет зимние Олимпийские игры в Пекине без медали, но настроена «оптимистично».</t>
+    <t>Упавшая звезда лыжного спорта США покинет зимние Олимпийские игры в Пекине без медали, но настроена «оптимистично».</t>
+  </si>
+  <si>
+    <t>Sentence</t>
+  </si>
+  <si>
+    <t>Rating</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:D996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1221,17 +1221,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>5</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>5</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>4</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>4</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>3</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>4</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>4</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>4</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>4</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>6</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>4</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>5</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>6</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>4</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>3</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>4</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>5</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>5</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>5</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>4</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>5</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>5</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>4</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>3</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>3</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1">
         <v>3</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1">
         <v>5</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
         <v>5</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>4</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1">
         <v>4</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1">
         <v>4</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1">
         <v>6</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>2</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
         <v>2</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1">
         <v>2</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
         <v>4</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>3</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>5</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>5</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1">
         <v>4</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1">
         <v>5</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>4</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>3</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>4</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1">
         <v>3</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>5</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1">
         <v>2</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1">
         <v>4</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>4</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1">
         <v>3</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>3</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>3</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1">
         <v>3</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98" s="1">
         <v>3</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1">
         <v>4</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1">
         <v>1</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1">
         <v>2</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1">
         <v>2</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1">
         <v>2</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B104" s="1">
         <v>2</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106" s="1">
         <v>3</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B107" s="1">
         <v>3</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B108" s="1">
         <v>3</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109" s="1">
         <v>4</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B110" s="1">
         <v>3</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111" s="1">
         <v>4</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B112" s="1">
         <v>6</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113" s="1">
         <v>2</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114" s="1">
         <v>4</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1">
         <v>4</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1">
         <v>2</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B117" s="1">
         <v>3</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118" s="1">
         <v>1</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119" s="1">
         <v>2</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120" s="1">
         <v>2</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B121" s="1">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B122" s="1">
         <v>2</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1">
         <v>2</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1">
         <v>3</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1">
         <v>3</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1">
         <v>4</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1">
         <v>4</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B128" s="1">
         <v>3</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1">
         <v>4</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130" s="1">
         <v>3</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131" s="1">
         <v>3</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1">
         <v>4</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133" s="1">
         <v>5</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134" s="1">
         <v>2</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135" s="1">
         <v>4</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B136" s="1">
         <v>4</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1">
         <v>4</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B138" s="1">
         <v>5</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B139" s="1">
         <v>4</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1">
         <v>3</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1">
         <v>3</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1">
         <v>4</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B143" s="1">
         <v>5</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1">
         <v>3</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B145" s="1">
         <v>4</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1">
         <v>5</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B147" s="1">
         <v>4</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1">
         <v>5</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B149" s="1">
         <v>4</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B150" s="1">
         <v>3</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1">
         <v>3</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B152" s="1">
         <v>3</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B153" s="1">
         <v>4</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B154" s="1">
         <v>3</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="155" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B155" s="1">
         <v>4</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="156" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B156" s="1">
         <v>2</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="157" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B157" s="1">
         <v>4</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B158" s="1">
         <v>3</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B159" s="1">
         <v>4</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B160" s="1">
         <v>5</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="161" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B161" s="1">
         <v>4</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="162" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B162" s="1">
         <v>4</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="163" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B163" s="1">
         <v>5</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="164" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B164" s="1">
         <v>4</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="165" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B165" s="1">
         <v>4</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="166" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B166" s="1">
         <v>4</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="167" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B167" s="1">
         <v>4</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="168" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B168" s="1">
         <v>4</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="169" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B169" s="1">
         <v>4</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B170" s="1">
         <v>5</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B171" s="1">
         <v>4</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="172" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B172" s="1">
         <v>5</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="173" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1">
         <v>4</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="174" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B174" s="1">
         <v>4</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="175" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1">
         <v>5</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="176" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1">
         <v>4</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="177" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1">
         <v>4</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="178" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B178" s="1">
         <v>5</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="179" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B179" s="1">
         <v>4</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="180" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B180" s="1">
         <v>2</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1">
         <v>2</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B182" s="1">
         <v>2</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B183" s="1">
         <v>2</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="184" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B184" s="1">
         <v>2</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B185" s="1">
         <v>2</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B186" s="1">
         <v>1</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B187" s="1">
         <v>1</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="188" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B188" s="1">
         <v>1</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B189" s="1">
         <v>1</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B190" s="1">
         <v>2</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B191" s="1">
         <v>2</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B192" s="1">
         <v>3</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B193" s="1">
         <v>3</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B194" s="1">
         <v>4</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B195" s="1">
         <v>2</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B196" s="1">
         <v>2</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B197" s="1">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B198" s="1">
         <v>3</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B199" s="1">
         <v>2</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B200" s="1">
         <v>2</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B201" s="1">
         <v>2</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B202" s="1">
         <v>2</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B203" s="1">
         <v>3</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B204" s="1">
         <v>3</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B205" s="1">
         <v>3</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B206" s="1">
         <v>4</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B207" s="1">
         <v>4</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B208" s="1">
         <v>2</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B209" s="1">
         <v>2</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B210" s="1">
         <v>4</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B211" s="1">
         <v>2</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B212" s="1">
         <v>3</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B213" s="1">
         <v>3</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B214" s="1">
         <v>1</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B215" s="1">
         <v>2</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B216" s="1">
         <v>2</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B217" s="1">
         <v>1</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B218" s="1">
         <v>2</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B219" s="1">
         <v>1</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B220" s="1">
         <v>1</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B221" s="1">
         <v>1</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B222" s="1">
         <v>1</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B223" s="1">
         <v>1</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B224" s="1">
         <v>4</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B225" s="1">
         <v>1</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B226" s="1">
         <v>2</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B227" s="1">
         <v>2</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B228" s="1">
         <v>2</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B229" s="1">
         <v>2</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B230" s="1">
         <v>3</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B231" s="1">
         <v>1</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B232" s="1">
         <v>4</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B233" s="1">
         <v>3</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B234" s="1">
         <v>3</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B235" s="1">
         <v>2</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B236" s="1">
         <v>4</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B237" s="1">
         <v>3</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="238" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B238" s="1">
         <v>2</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="239" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B239" s="1">
         <v>2</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="240" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B240" s="1">
         <v>2</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="241" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B241" s="1">
         <v>3</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="242" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B242" s="1">
         <v>3</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="243" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B243" s="1">
         <v>3</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="244" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B244" s="1">
         <v>3</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="245" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B245" s="1">
         <v>2</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="246" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B246" s="1">
         <v>2</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="247" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B247" s="1">
         <v>2</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="248" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B248" s="1">
         <v>2</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="249" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B249" s="1">
         <v>4</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="250" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B250" s="1">
         <v>4</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="251" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B251" s="1">
         <v>4</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="252" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B252" s="1">
         <v>2</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="253" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B253" s="1">
         <v>4</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="254" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B254" s="1">
         <v>2</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="255" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B255" s="1">
         <v>2</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="256" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B256" s="1">
         <v>2</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="257" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B257" s="1">
         <v>2</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="258" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B258" s="1">
         <v>1</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="259" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B259" s="1">
         <v>2</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="260" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B260" s="1">
         <v>2</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="261" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B261" s="1">
         <v>3</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="262" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B262" s="1">
         <v>2</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="263" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B263" s="1">
         <v>2</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="264" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B264" s="1">
         <v>4</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="265" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B265" s="1">
         <v>2</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="266" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B266" s="1">
         <v>3</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="267" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B267" s="1">
         <v>2</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="268" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B268" s="1">
         <v>6</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="269" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B269" s="1">
         <v>4</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="270" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B270" s="1">
         <v>5</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="271" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B271" s="1">
         <v>4</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="272" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B272" s="1">
         <v>3</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B273" s="1">
         <v>5</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B274" s="1">
         <v>3</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="275" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B275" s="1">
         <v>2</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B276" s="1">
         <v>4</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B277" s="1">
         <v>3</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B278" s="1">
         <v>5</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B279" s="1">
         <v>3</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B280" s="1">
         <v>3</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B281" s="1">
         <v>4</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B282" s="1">
         <v>3</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B283" s="1">
         <v>4</v>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B284" s="1">
         <v>4</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B285" s="1">
         <v>3</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B286" s="1">
         <v>4</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B287" s="1">
         <v>2</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B288" s="1">
         <v>2</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B289" s="1">
         <v>3</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B290" s="1">
         <v>4</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B291" s="1">
         <v>3</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B292" s="1">
         <v>4</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B293" s="1">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B294" s="1">
         <v>3</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B295" s="1">
         <v>3</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="296" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B296" s="1">
         <v>4</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="297" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B297" s="1">
         <v>4</v>
